--- a/schema.xlsx
+++ b/schema.xlsx
@@ -481,142 +481,142 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>796</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>904</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>191</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>621</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>438</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>810</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>690</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>983</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>730</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>699</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>255</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>587</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>281</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>198</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>931</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>162</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>831</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>252</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>542</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>139</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>106</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>525</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>775</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>645</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>301</v>
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>981</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>727</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>357</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>946</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>423</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>952</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>499</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>446</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>880</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>817</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
